--- a/Code/Results/Cases/Case_0_177/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_177/res_line/pl_mw.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2335372151467112</v>
+        <v>0.3740083992085772</v>
       </c>
       <c r="D2">
-        <v>0.06761568513724114</v>
+        <v>0.02724418757605918</v>
       </c>
       <c r="E2">
-        <v>0.05742711165584069</v>
+        <v>0.1401897643330425</v>
       </c>
       <c r="F2">
-        <v>6.926095097750789</v>
+        <v>6.557428756353914</v>
       </c>
       <c r="G2">
-        <v>7.440038620817631</v>
+        <v>6.01939653040273</v>
       </c>
       <c r="H2">
-        <v>3.770653223023544</v>
+        <v>3.997281369321001</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2732719344351295</v>
+        <v>0.3938509743047121</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.03239693575356739</v>
+        <v>0.1118087815775866</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2120268091206441</v>
+        <v>0.372667010370364</v>
       </c>
       <c r="D3">
-        <v>0.05782722567481358</v>
+        <v>0.02489096839891403</v>
       </c>
       <c r="E3">
-        <v>0.0546845430145062</v>
+        <v>0.1406261917705685</v>
       </c>
       <c r="F3">
-        <v>6.059136487086249</v>
+        <v>6.434948212661141</v>
       </c>
       <c r="G3">
-        <v>6.458976327817027</v>
+        <v>5.86786478500062</v>
       </c>
       <c r="H3">
-        <v>3.318947081333363</v>
+        <v>3.938905539795996</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2456420729791233</v>
+        <v>0.3915715013672951</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0327260897653705</v>
+        <v>0.112451925594943</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1996632253160158</v>
+        <v>0.3720460413837259</v>
       </c>
       <c r="D4">
-        <v>0.05208498102087589</v>
+        <v>0.02343810531269952</v>
       </c>
       <c r="E4">
-        <v>0.05315826286366487</v>
+        <v>0.1409525226156347</v>
       </c>
       <c r="F4">
-        <v>5.555553857431477</v>
+        <v>6.364209360459199</v>
       </c>
       <c r="G4">
-        <v>5.88809112969966</v>
+        <v>5.779160603376397</v>
       </c>
       <c r="H4">
-        <v>3.057097341637359</v>
+        <v>3.905675968507353</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2297434582650126</v>
+        <v>0.3903992367865072</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.03296710628241328</v>
+        <v>0.112876709259158</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1948055559588084</v>
+        <v>0.3718436792803885</v>
       </c>
       <c r="D5">
-        <v>0.04979828696295385</v>
+        <v>0.02284387653210729</v>
       </c>
       <c r="E5">
-        <v>0.05257107954383677</v>
+        <v>0.1411001577118274</v>
       </c>
       <c r="F5">
-        <v>5.356360324129355</v>
+        <v>6.336493176804623</v>
       </c>
       <c r="G5">
-        <v>5.662019943948849</v>
+        <v>5.744089390514773</v>
       </c>
       <c r="H5">
-        <v>2.95364896679547</v>
+        <v>3.89278550608401</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2234911289098349</v>
+        <v>0.3899783203635536</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.03307469026198895</v>
+        <v>0.1130573438889702</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1940090330891451</v>
+        <v>0.3718131309068298</v>
       </c>
       <c r="D6">
-        <v>0.0494214427301074</v>
+        <v>0.0227450690194857</v>
       </c>
       <c r="E6">
-        <v>0.05247555355124867</v>
+        <v>0.1411255567447345</v>
       </c>
       <c r="F6">
-        <v>5.323616883594042</v>
+        <v>6.331957644482941</v>
       </c>
       <c r="G6">
-        <v>5.624842896749499</v>
+        <v>5.738330452565265</v>
       </c>
       <c r="H6">
-        <v>2.936651657969094</v>
+        <v>3.890684183614781</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2224655385448173</v>
+        <v>0.3899118467763145</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.03309310949277311</v>
+        <v>0.1130877934986927</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1995970195309695</v>
+        <v>0.3720431073732158</v>
       </c>
       <c r="D7">
-        <v>0.05205394260833884</v>
+        <v>0.02343010036373983</v>
       </c>
       <c r="E7">
-        <v>0.05315020883714361</v>
+        <v>0.1409544543752137</v>
       </c>
       <c r="F7">
-        <v>5.552844520388078</v>
+        <v>6.363831089934934</v>
       </c>
       <c r="G7">
-        <v>5.885017261519806</v>
+        <v>5.778683280535063</v>
       </c>
       <c r="H7">
-        <v>3.055689772307119</v>
+        <v>3.905499496124378</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2296582696355642</v>
+        <v>0.3903933307029206</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.03296851976479509</v>
+        <v>0.1128791148435759</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2259242859765891</v>
+        <v>0.3735036620075931</v>
       </c>
       <c r="D8">
-        <v>0.0641756324398628</v>
+        <v>0.02643434981811765</v>
       </c>
       <c r="E8">
-        <v>0.05644552528793234</v>
+        <v>0.1403281167795853</v>
       </c>
       <c r="F8">
-        <v>6.620403286783556</v>
+        <v>6.514263321210535</v>
       </c>
       <c r="G8">
-        <v>7.094335196361044</v>
+        <v>5.966239611626577</v>
       </c>
       <c r="H8">
-        <v>3.61126248548851</v>
+        <v>3.976607092242318</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2634961806851095</v>
+        <v>0.3930175961314717</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.0325020740705142</v>
+        <v>0.1120243431399821</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.286086677641876</v>
+        <v>0.3779889155194525</v>
       </c>
       <c r="D9">
-        <v>0.09090339692831861</v>
+        <v>0.03227036071579903</v>
       </c>
       <c r="E9">
-        <v>0.06444084394228611</v>
+        <v>0.1395641598401305</v>
       </c>
       <c r="F9">
-        <v>9.012160033889757</v>
+        <v>6.84527292061199</v>
       </c>
       <c r="G9">
-        <v>9.794438350998064</v>
+        <v>6.369124433330228</v>
       </c>
       <c r="H9">
-        <v>4.861080898429236</v>
+        <v>4.137089045987068</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3407432876652763</v>
+        <v>0.3999858260432489</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.0319203879922636</v>
+        <v>0.110584625320282</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3390608266689128</v>
+        <v>0.3822922488738811</v>
       </c>
       <c r="D10">
-        <v>0.1139950286447444</v>
+        <v>0.03653591584325966</v>
       </c>
       <c r="E10">
-        <v>0.07179623108620703</v>
+        <v>0.1392878426893844</v>
       </c>
       <c r="F10">
-        <v>11.08826196295684</v>
+        <v>7.111286806379781</v>
       </c>
       <c r="G10">
-        <v>12.13220938904908</v>
+        <v>6.68750992840728</v>
       </c>
       <c r="H10">
-        <v>5.949959592123605</v>
+        <v>4.268271190672522</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.408881252757169</v>
+        <v>0.4062432343923064</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.03174279903035249</v>
+        <v>0.1096701222097405</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3663498309315116</v>
+        <v>0.3844733748428268</v>
       </c>
       <c r="D11">
-        <v>0.1258632574843759</v>
+        <v>0.03847420542565771</v>
       </c>
       <c r="E11">
-        <v>0.07566002746850131</v>
+        <v>0.1392244798864475</v>
       </c>
       <c r="F11">
-        <v>12.15158380470137</v>
+        <v>7.237455936493916</v>
       </c>
       <c r="G11">
-        <v>13.32826152383205</v>
+        <v>6.837438603795249</v>
       </c>
       <c r="H11">
-        <v>6.508780223632868</v>
+        <v>4.330934473592777</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4440710487428987</v>
+        <v>0.4093431699045738</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.03173287495042842</v>
+        <v>0.1092850110907602</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.377315428477516</v>
+        <v>0.3853318263374206</v>
       </c>
       <c r="D12">
-        <v>0.1306383530208137</v>
+        <v>0.0392080896274507</v>
       </c>
       <c r="E12">
-        <v>0.07722393237794023</v>
+        <v>0.1392094891314279</v>
       </c>
       <c r="F12">
-        <v>12.57805226531514</v>
+        <v>7.285990733471579</v>
       </c>
       <c r="G12">
-        <v>13.80778760480985</v>
+        <v>6.894963572998506</v>
       </c>
       <c r="H12">
-        <v>6.733099939079011</v>
+        <v>4.355101455187423</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.458232747320892</v>
+        <v>0.4105539854504485</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.03174151950112325</v>
+        <v>0.1091436088605633</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3749219959856305</v>
+        <v>0.3851454917516719</v>
       </c>
       <c r="D13">
-        <v>0.1295956240170923</v>
+        <v>0.03905003587208</v>
       </c>
       <c r="E13">
-        <v>0.0768820751409649</v>
+        <v>0.1392123165749446</v>
       </c>
       <c r="F13">
-        <v>12.48500185312628</v>
+        <v>7.275503962648486</v>
       </c>
       <c r="G13">
-        <v>13.7031681982296</v>
+        <v>6.882540885201763</v>
       </c>
       <c r="H13">
-        <v>6.68414692179374</v>
+        <v>4.349877061900884</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4551405944425682</v>
+        <v>0.4102915637442379</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.03173905929406118</v>
+        <v>0.1091738654864862</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3672380185738007</v>
+        <v>0.3845433465443762</v>
       </c>
       <c r="D14">
-        <v>0.1262498356513859</v>
+        <v>0.03853458342400273</v>
       </c>
       <c r="E14">
-        <v>0.0757864746229977</v>
+        <v>0.1392230659115832</v>
       </c>
       <c r="F14">
-        <v>12.18614198340555</v>
+        <v>7.241433655332344</v>
       </c>
       <c r="G14">
-        <v>13.3671225341397</v>
+        <v>6.842156077834773</v>
       </c>
       <c r="H14">
-        <v>6.526953613245041</v>
+        <v>4.332913885022492</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4452176330550515</v>
+        <v>0.4094420412343425</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.03173332113313165</v>
+        <v>0.1092732891105967</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.362620199529232</v>
+        <v>0.3841787595913218</v>
       </c>
       <c r="D15">
-        <v>0.1242402684603761</v>
+        <v>0.03821884648347407</v>
       </c>
       <c r="E15">
-        <v>0.07512950594989221</v>
+        <v>0.1392308239118307</v>
       </c>
       <c r="F15">
-        <v>12.00643765377981</v>
+        <v>7.220663700067178</v>
       </c>
       <c r="G15">
-        <v>13.16503636221535</v>
+        <v>6.817517457855161</v>
       </c>
       <c r="H15">
-        <v>6.432458833655801</v>
+        <v>4.322580703489507</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4392572701201516</v>
+        <v>0.4089265095693975</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.03173150477502418</v>
+        <v>0.1093347656317682</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3373546757229633</v>
+        <v>0.3821542357732142</v>
       </c>
       <c r="D16">
-        <v>0.1132531977759115</v>
+        <v>0.03640921834467292</v>
       </c>
       <c r="E16">
-        <v>0.07155612757122753</v>
+        <v>0.1392932412752259</v>
       </c>
       <c r="F16">
-        <v>11.02166929629846</v>
+        <v>7.103146468933744</v>
       </c>
       <c r="G16">
-        <v>12.05728015360683</v>
+        <v>6.677815739129471</v>
       </c>
       <c r="H16">
-        <v>5.91498607203232</v>
+        <v>4.264236807723535</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.4066834415192488</v>
+        <v>0.4060457876422845</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.03174504099624897</v>
+        <v>0.109695910854068</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.322772747445299</v>
+        <v>0.3809697593354144</v>
       </c>
       <c r="D17">
-        <v>0.1069108966326056</v>
+        <v>0.03529866632503342</v>
       </c>
       <c r="E17">
-        <v>0.06951188842590028</v>
+        <v>0.1393475253000673</v>
       </c>
       <c r="F17">
-        <v>10.45188530793547</v>
+        <v>7.0323854684423</v>
       </c>
       <c r="G17">
-        <v>11.41603184446387</v>
+        <v>6.593430308114989</v>
       </c>
       <c r="H17">
-        <v>5.61586399671711</v>
+        <v>4.229215660517411</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3879094107204395</v>
+        <v>0.4043438101736712</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.03177278701604713</v>
+        <v>0.1099253671960554</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3146723282125805</v>
+        <v>0.3803094957085307</v>
       </c>
       <c r="D18">
-        <v>0.1033846029633736</v>
+        <v>0.03465969297042903</v>
       </c>
       <c r="E18">
-        <v>0.06838276564792523</v>
+        <v>0.1393846128102858</v>
       </c>
       <c r="F18">
-        <v>10.13482204139109</v>
+        <v>6.992170153445642</v>
       </c>
       <c r="G18">
-        <v>11.05908801843196</v>
+        <v>6.545372367118489</v>
       </c>
       <c r="H18">
-        <v>5.44951024397858</v>
+        <v>4.209353153737027</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3774874174671652</v>
+        <v>0.4033886989461735</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.03179524243461529</v>
+        <v>0.1100602536845887</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.311974821890459</v>
+        <v>0.3800895404093154</v>
       </c>
       <c r="D19">
-        <v>0.1022095773244729</v>
+        <v>0.03444330486855307</v>
       </c>
       <c r="E19">
-        <v>0.06800785671824627</v>
+        <v>0.1393981761159218</v>
       </c>
       <c r="F19">
-        <v>10.02914277816893</v>
+        <v>6.978636693420754</v>
       </c>
       <c r="G19">
-        <v>10.94009668781825</v>
+        <v>6.529182394438465</v>
       </c>
       <c r="H19">
-        <v>5.394079313083523</v>
+        <v>4.202676023481388</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3740178570434978</v>
+        <v>0.4030693911606562</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.03180390854097048</v>
+        <v>0.1101064239887997</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3242943338069324</v>
+        <v>0.3810936712133639</v>
       </c>
       <c r="D20">
-        <v>0.1075729684216427</v>
+        <v>0.03541690709790402</v>
       </c>
       <c r="E20">
-        <v>0.06972451715239458</v>
+        <v>0.1393411394118047</v>
       </c>
       <c r="F20">
-        <v>10.51139725604963</v>
+        <v>7.039867838568057</v>
       </c>
       <c r="G20">
-        <v>11.48301983350569</v>
+        <v>6.602363649254983</v>
       </c>
       <c r="H20">
-        <v>5.647095980284746</v>
+        <v>4.232914609046873</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3898676323046857</v>
+        <v>0.404522519634483</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.03176914801312414</v>
+        <v>0.1099006401705171</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3694760375123565</v>
+        <v>0.3847193259941548</v>
       </c>
       <c r="D21">
-        <v>0.1272240573218255</v>
+        <v>0.03868598548218927</v>
       </c>
       <c r="E21">
-        <v>0.07610527043122062</v>
+        <v>0.1392196638944583</v>
       </c>
       <c r="F21">
-        <v>12.27320794986639</v>
+        <v>7.251420251306001</v>
       </c>
       <c r="G21">
-        <v>13.46502633586726</v>
+        <v>6.853997568860393</v>
       </c>
       <c r="H21">
-        <v>6.572742843198</v>
+        <v>4.337884434673185</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.4481071191916328</v>
+        <v>0.4096905600657408</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.03173464707877471</v>
+        <v>0.1092439658241133</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4028423386720306</v>
+        <v>0.3872785531148395</v>
       </c>
       <c r="D22">
-        <v>0.1417822289323638</v>
+        <v>0.04082200908493405</v>
       </c>
       <c r="E22">
-        <v>0.08088623369845394</v>
+        <v>0.1391927712490926</v>
       </c>
       <c r="F22">
-        <v>13.56948133574451</v>
+        <v>7.394103624924924</v>
       </c>
       <c r="G22">
-        <v>14.92225333351553</v>
+        <v>7.022836498142397</v>
       </c>
       <c r="H22">
-        <v>7.254988255028081</v>
+        <v>4.409043827508299</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4912530496323058</v>
+        <v>0.4132837161555187</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.03178633260292862</v>
+        <v>0.1088406128405772</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3846002954117864</v>
+        <v>0.3858951678995481</v>
       </c>
       <c r="D23">
-        <v>0.1338140555035707</v>
+        <v>0.03968195115021445</v>
       </c>
       <c r="E23">
-        <v>0.0782661137787386</v>
+        <v>0.1392023070030532</v>
       </c>
       <c r="F23">
-        <v>12.86116217858017</v>
+        <v>7.317540962805481</v>
       </c>
       <c r="G23">
-        <v>14.12607247307523</v>
+        <v>6.932317033349364</v>
       </c>
       <c r="H23">
-        <v>6.882072345833251</v>
+        <v>4.370828136050818</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4676482615125224</v>
+        <v>0.4113460896759733</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.03175090868192321</v>
+        <v>0.1090535312789811</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3236055551013521</v>
+        <v>0.3810375861814634</v>
       </c>
       <c r="D24">
-        <v>0.1072732777657848</v>
+        <v>0.03536345202419966</v>
       </c>
       <c r="E24">
-        <v>0.0696282457838393</v>
+        <v>0.1393440081633379</v>
       </c>
       <c r="F24">
-        <v>10.48445961317671</v>
+        <v>7.036483608324033</v>
       </c>
       <c r="G24">
-        <v>11.45269857437387</v>
+        <v>6.598323465581927</v>
       </c>
       <c r="H24">
-        <v>5.632958751779029</v>
+        <v>4.231241468999315</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3889811791387388</v>
+        <v>0.4044416523065877</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.03177077309887366</v>
+        <v>0.1099118100100327</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2685949683195474</v>
+        <v>0.3765999893390841</v>
       </c>
       <c r="D25">
-        <v>0.08321817270994813</v>
+        <v>0.03069630908394316</v>
       </c>
       <c r="E25">
-        <v>0.06206737941979412</v>
+        <v>0.1397209344320594</v>
       </c>
       <c r="F25">
-        <v>8.321611103338427</v>
+        <v>6.75178270529554</v>
       </c>
       <c r="G25">
-        <v>9.01582354217328</v>
+        <v>6.256275961390372</v>
       </c>
       <c r="H25">
-        <v>4.499648181230498</v>
+        <v>4.091376358756747</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3182791498874593</v>
+        <v>0.3979029319190204</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.0320381188484582</v>
+        <v>0.1109488849938707</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_177/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_177/res_line/pl_mw.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.3740083992085772</v>
+        <v>0.233537215146967</v>
       </c>
       <c r="D2">
-        <v>0.02724418757605918</v>
+        <v>0.06761568513732641</v>
       </c>
       <c r="E2">
-        <v>0.1401897643330425</v>
+        <v>0.05742711165577852</v>
       </c>
       <c r="F2">
-        <v>6.557428756353914</v>
+        <v>6.92609509775076</v>
       </c>
       <c r="G2">
-        <v>6.01939653040273</v>
+        <v>7.440038620817518</v>
       </c>
       <c r="H2">
-        <v>3.997281369321001</v>
+        <v>3.770653223023373</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3938509743047121</v>
+        <v>0.2732719344353001</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1118087815775866</v>
+        <v>0.03239693575354075</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.372667010370364</v>
+        <v>0.2120268091209994</v>
       </c>
       <c r="D3">
-        <v>0.02489096839891403</v>
+        <v>0.05782722567479937</v>
       </c>
       <c r="E3">
-        <v>0.1406261917705685</v>
+        <v>0.05468454301454351</v>
       </c>
       <c r="F3">
-        <v>6.434948212661141</v>
+        <v>6.059136487086249</v>
       </c>
       <c r="G3">
-        <v>5.86786478500062</v>
+        <v>6.458976327817027</v>
       </c>
       <c r="H3">
-        <v>3.938905539795996</v>
+        <v>3.318947081333306</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3915715013672951</v>
+        <v>0.2456420729792086</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.112451925594943</v>
+        <v>0.03272608976545399</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3720460413837259</v>
+        <v>0.1996632253162431</v>
       </c>
       <c r="D4">
-        <v>0.02343810531269952</v>
+        <v>0.05208498102064141</v>
       </c>
       <c r="E4">
-        <v>0.1409525226156347</v>
+        <v>0.0531582628636631</v>
       </c>
       <c r="F4">
-        <v>6.364209360459199</v>
+        <v>5.555553857431477</v>
       </c>
       <c r="G4">
-        <v>5.779160603376397</v>
+        <v>5.888091129699603</v>
       </c>
       <c r="H4">
-        <v>3.905675968507353</v>
+        <v>3.057097341637359</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3903992367865072</v>
+        <v>0.2297434582648847</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.112876709259158</v>
+        <v>0.03296710628250388</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.3718436792803885</v>
+        <v>0.19480555595878</v>
       </c>
       <c r="D5">
-        <v>0.02284387653210729</v>
+        <v>0.04979828696294675</v>
       </c>
       <c r="E5">
-        <v>0.1411001577118274</v>
+        <v>0.052571079543835</v>
       </c>
       <c r="F5">
-        <v>6.336493176804623</v>
+        <v>5.356360324129327</v>
       </c>
       <c r="G5">
-        <v>5.744089390514773</v>
+        <v>5.662019943948962</v>
       </c>
       <c r="H5">
-        <v>3.89278550608401</v>
+        <v>2.953648966795527</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3899783203635536</v>
+        <v>0.2234911289098562</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1130573438889702</v>
+        <v>0.03307469026190901</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3718131309068298</v>
+        <v>0.1940090330891451</v>
       </c>
       <c r="D6">
-        <v>0.0227450690194857</v>
+        <v>0.04942144273054794</v>
       </c>
       <c r="E6">
-        <v>0.1411255567447345</v>
+        <v>0.05247555355124689</v>
       </c>
       <c r="F6">
-        <v>6.331957644482941</v>
+        <v>5.323616883594042</v>
       </c>
       <c r="G6">
-        <v>5.738330452565265</v>
+        <v>5.624842896749612</v>
       </c>
       <c r="H6">
-        <v>3.890684183614781</v>
+        <v>2.936651657969094</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3899118467763145</v>
+        <v>0.2224655385449097</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1130877934986927</v>
+        <v>0.0330931094929916</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3720431073732158</v>
+        <v>0.1995970195306143</v>
       </c>
       <c r="D7">
-        <v>0.02343010036373983</v>
+        <v>0.05205394260803331</v>
       </c>
       <c r="E7">
-        <v>0.1409544543752137</v>
+        <v>0.05315020883713295</v>
       </c>
       <c r="F7">
-        <v>6.363831089934934</v>
+        <v>5.552844520388106</v>
       </c>
       <c r="G7">
-        <v>5.778683280535063</v>
+        <v>5.88501726151992</v>
       </c>
       <c r="H7">
-        <v>3.905499496124378</v>
+        <v>3.055689772307119</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3903933307029206</v>
+        <v>0.2296582696353084</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1128791148435759</v>
+        <v>0.03296851976481285</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.3735036620075931</v>
+        <v>0.2259242859771717</v>
       </c>
       <c r="D8">
-        <v>0.02643434981811765</v>
+        <v>0.06417563243984148</v>
       </c>
       <c r="E8">
-        <v>0.1403281167795853</v>
+        <v>0.05644552528795366</v>
       </c>
       <c r="F8">
-        <v>6.514263321210535</v>
+        <v>6.620403286783585</v>
       </c>
       <c r="G8">
-        <v>5.966239611626577</v>
+        <v>7.094335196361044</v>
       </c>
       <c r="H8">
-        <v>3.976607092242318</v>
+        <v>3.611262485488453</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3930175961314717</v>
+        <v>0.2634961806852516</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1120243431399821</v>
+        <v>0.0325020740705817</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3779889155194525</v>
+        <v>0.2860866776418192</v>
       </c>
       <c r="D9">
-        <v>0.03227036071579903</v>
+        <v>0.09090339692846783</v>
       </c>
       <c r="E9">
-        <v>0.1395641598401305</v>
+        <v>0.06444084394225413</v>
       </c>
       <c r="F9">
-        <v>6.84527292061199</v>
+        <v>9.01216003388987</v>
       </c>
       <c r="G9">
-        <v>6.369124433330228</v>
+        <v>9.794438350998007</v>
       </c>
       <c r="H9">
-        <v>4.137089045987068</v>
+        <v>4.861080898429407</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3999858260432489</v>
+        <v>0.3407432876652479</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.110584625320282</v>
+        <v>0.03192038799224761</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3822922488738811</v>
+        <v>0.3390608266689128</v>
       </c>
       <c r="D10">
-        <v>0.03653591584325966</v>
+        <v>0.1139950286449647</v>
       </c>
       <c r="E10">
-        <v>0.1392878426893844</v>
+        <v>0.07179623108615729</v>
       </c>
       <c r="F10">
-        <v>7.111286806379781</v>
+        <v>11.08826196295689</v>
       </c>
       <c r="G10">
-        <v>6.68750992840728</v>
+        <v>12.13220938904902</v>
       </c>
       <c r="H10">
-        <v>4.268271190672522</v>
+        <v>5.949959592123605</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.4062432343923064</v>
+        <v>0.4088812527569416</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1096701222097405</v>
+        <v>0.03174279903045196</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3844733748428268</v>
+        <v>0.3663498309319948</v>
       </c>
       <c r="D11">
-        <v>0.03847420542565771</v>
+        <v>0.125863257484788</v>
       </c>
       <c r="E11">
-        <v>0.1392244798864475</v>
+        <v>0.07566002746849065</v>
       </c>
       <c r="F11">
-        <v>7.237455936493916</v>
+        <v>12.15158380470143</v>
       </c>
       <c r="G11">
-        <v>6.837438603795249</v>
+        <v>13.328261523832</v>
       </c>
       <c r="H11">
-        <v>4.330934473592777</v>
+        <v>6.508780223632982</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4093431699045738</v>
+        <v>0.4440710487430266</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1092850110907602</v>
+        <v>0.03173287495050126</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3853318263374206</v>
+        <v>0.3773154284783971</v>
       </c>
       <c r="D12">
-        <v>0.0392080896274507</v>
+        <v>0.1306383530204087</v>
       </c>
       <c r="E12">
-        <v>0.1392094891314279</v>
+        <v>0.07722393237792602</v>
       </c>
       <c r="F12">
-        <v>7.285990733471579</v>
+        <v>12.57805226531502</v>
       </c>
       <c r="G12">
-        <v>6.894963572998506</v>
+        <v>13.8077876048099</v>
       </c>
       <c r="H12">
-        <v>4.355101455187423</v>
+        <v>6.733099939079011</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4105539854504485</v>
+        <v>0.4582327473209631</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1091436088605633</v>
+        <v>0.03174151950119075</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3851454917516719</v>
+        <v>0.3749219959853178</v>
       </c>
       <c r="D13">
-        <v>0.03905003587208</v>
+        <v>0.1295956240171492</v>
       </c>
       <c r="E13">
-        <v>0.1392123165749446</v>
+        <v>0.07688207514094358</v>
       </c>
       <c r="F13">
-        <v>7.275503962648486</v>
+        <v>12.48500185312616</v>
       </c>
       <c r="G13">
-        <v>6.882540885201763</v>
+        <v>13.70316819822949</v>
       </c>
       <c r="H13">
-        <v>4.349877061900884</v>
+        <v>6.68414692179374</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4102915637442379</v>
+        <v>0.4551405944425397</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1091738654864862</v>
+        <v>0.03173905929415888</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3845433465443762</v>
+        <v>0.3672380185734596</v>
       </c>
       <c r="D14">
-        <v>0.03853458342400273</v>
+        <v>0.1262498356511941</v>
       </c>
       <c r="E14">
-        <v>0.1392230659115832</v>
+        <v>0.07578647462297994</v>
       </c>
       <c r="F14">
-        <v>7.241433655332344</v>
+        <v>12.18614198340543</v>
       </c>
       <c r="G14">
-        <v>6.842156077834773</v>
+        <v>13.36712253413953</v>
       </c>
       <c r="H14">
-        <v>4.332913885022492</v>
+        <v>6.526953613245041</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4094420412343425</v>
+        <v>0.4452176330551083</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1092732891105967</v>
+        <v>0.03173332113317784</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3841787595913218</v>
+        <v>0.3626201995296867</v>
       </c>
       <c r="D15">
-        <v>0.03821884648347407</v>
+        <v>0.1242402684606105</v>
       </c>
       <c r="E15">
-        <v>0.1392308239118307</v>
+        <v>0.07512950594993129</v>
       </c>
       <c r="F15">
-        <v>7.220663700067178</v>
+        <v>12.00643765377976</v>
       </c>
       <c r="G15">
-        <v>6.817517457855161</v>
+        <v>13.16503636221546</v>
       </c>
       <c r="H15">
-        <v>4.322580703489507</v>
+        <v>6.432458833655744</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4089265095693975</v>
+        <v>0.4392572701202937</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1093347656317682</v>
+        <v>0.03173150477491937</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3821542357732142</v>
+        <v>0.3373546757229349</v>
       </c>
       <c r="D16">
-        <v>0.03640921834467292</v>
+        <v>0.1132531977761175</v>
       </c>
       <c r="E16">
-        <v>0.1392932412752259</v>
+        <v>0.07155612757125596</v>
       </c>
       <c r="F16">
-        <v>7.103146468933744</v>
+        <v>11.0216692962984</v>
       </c>
       <c r="G16">
-        <v>6.677815739129471</v>
+        <v>12.05728015360683</v>
       </c>
       <c r="H16">
-        <v>4.264236807723535</v>
+        <v>5.914986072032207</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.4060457876422845</v>
+        <v>0.4066834415192773</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.109695910854068</v>
+        <v>0.03174504099635911</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3809697593354144</v>
+        <v>0.3227727474457538</v>
       </c>
       <c r="D17">
-        <v>0.03529866632503342</v>
+        <v>0.1069108966323853</v>
       </c>
       <c r="E17">
-        <v>0.1393475253000673</v>
+        <v>0.06951188842590028</v>
       </c>
       <c r="F17">
-        <v>7.0323854684423</v>
+        <v>10.45188530793541</v>
       </c>
       <c r="G17">
-        <v>6.593430308114989</v>
+        <v>11.41603184446393</v>
       </c>
       <c r="H17">
-        <v>4.229215660517411</v>
+        <v>5.615863996717167</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.4043438101736712</v>
+        <v>0.3879094107205674</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1099253671960554</v>
+        <v>0.031772787015937</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3803094957085307</v>
+        <v>0.3146723282120973</v>
       </c>
       <c r="D18">
-        <v>0.03465969297042903</v>
+        <v>0.1033846029633168</v>
       </c>
       <c r="E18">
-        <v>0.1393846128102858</v>
+        <v>0.06838276564793233</v>
       </c>
       <c r="F18">
-        <v>6.992170153445642</v>
+        <v>10.1348220413912</v>
       </c>
       <c r="G18">
-        <v>6.545372367118489</v>
+        <v>11.05908801843213</v>
       </c>
       <c r="H18">
-        <v>4.209353153737027</v>
+        <v>5.44951024397858</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.4033886989461735</v>
+        <v>0.3774874174671652</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1100602536845887</v>
+        <v>0.03179524243484444</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3800895404093154</v>
+        <v>0.3119748218895637</v>
       </c>
       <c r="D19">
-        <v>0.03444330486855307</v>
+        <v>0.1022095773246861</v>
       </c>
       <c r="E19">
-        <v>0.1393981761159218</v>
+        <v>0.06800785671824627</v>
       </c>
       <c r="F19">
-        <v>6.978636693420754</v>
+        <v>10.02914277816888</v>
       </c>
       <c r="G19">
-        <v>6.529182394438465</v>
+        <v>10.94009668781808</v>
       </c>
       <c r="H19">
-        <v>4.202676023481388</v>
+        <v>5.394079313083466</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.4030693911606562</v>
+        <v>0.3740178570434978</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1101064239887997</v>
+        <v>0.03180390854130977</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3810936712133639</v>
+        <v>0.3242943338055966</v>
       </c>
       <c r="D20">
-        <v>0.03541690709790402</v>
+        <v>0.1075729684218487</v>
       </c>
       <c r="E20">
-        <v>0.1393411394118047</v>
+        <v>0.06972451715232708</v>
       </c>
       <c r="F20">
-        <v>7.039867838568057</v>
+        <v>10.51139725604969</v>
       </c>
       <c r="G20">
-        <v>6.602363649254983</v>
+        <v>11.48301983350586</v>
       </c>
       <c r="H20">
-        <v>4.232914609046873</v>
+        <v>5.647095980284746</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.404522519634483</v>
+        <v>0.3898676323046431</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1099006401705171</v>
+        <v>0.03176914801320052</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3847193259941548</v>
+        <v>0.3694760375119017</v>
       </c>
       <c r="D21">
-        <v>0.03868598548218927</v>
+        <v>0.1272240573217829</v>
       </c>
       <c r="E21">
-        <v>0.1392196638944583</v>
+        <v>0.07610527043120996</v>
       </c>
       <c r="F21">
-        <v>7.251420251306001</v>
+        <v>12.2732079498665</v>
       </c>
       <c r="G21">
-        <v>6.853997568860393</v>
+        <v>13.46502633586738</v>
       </c>
       <c r="H21">
-        <v>4.337884434673185</v>
+        <v>6.572742843198057</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.4096905600657408</v>
+        <v>0.4481071191917181</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1092439658241133</v>
+        <v>0.03173464707870188</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3872785531148395</v>
+        <v>0.4028423386724</v>
       </c>
       <c r="D22">
-        <v>0.04082200908493405</v>
+        <v>0.1417822289323567</v>
       </c>
       <c r="E22">
-        <v>0.1391927712490926</v>
+        <v>0.08088623369850723</v>
       </c>
       <c r="F22">
-        <v>7.394103624924924</v>
+        <v>13.56948133574451</v>
       </c>
       <c r="G22">
-        <v>7.022836498142397</v>
+        <v>14.92225333351553</v>
       </c>
       <c r="H22">
-        <v>4.409043827508299</v>
+        <v>7.254988255028081</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4132837161555187</v>
+        <v>0.4912530496322347</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1088406128405772</v>
+        <v>0.03178633260287533</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3858951678995481</v>
+        <v>0.3846002954121559</v>
       </c>
       <c r="D23">
-        <v>0.03968195115021445</v>
+        <v>0.1338140555037413</v>
       </c>
       <c r="E23">
-        <v>0.1392023070030532</v>
+        <v>0.07826611377877413</v>
       </c>
       <c r="F23">
-        <v>7.317540962805481</v>
+        <v>12.8611621785804</v>
       </c>
       <c r="G23">
-        <v>6.932317033349364</v>
+        <v>14.12607247307557</v>
       </c>
       <c r="H23">
-        <v>4.370828136050818</v>
+        <v>6.882072345833365</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4113460896759733</v>
+        <v>0.4676482615127355</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1090535312789811</v>
+        <v>0.03175090868174735</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3810375861814634</v>
+        <v>0.3236055551013521</v>
       </c>
       <c r="D24">
-        <v>0.03536345202419966</v>
+        <v>0.1072732777655645</v>
       </c>
       <c r="E24">
-        <v>0.1393440081633379</v>
+        <v>0.06962824578386773</v>
       </c>
       <c r="F24">
-        <v>7.036483608324033</v>
+        <v>10.48445961317677</v>
       </c>
       <c r="G24">
-        <v>6.598323465581927</v>
+        <v>11.45269857437393</v>
       </c>
       <c r="H24">
-        <v>4.231241468999315</v>
+        <v>5.632958751779086</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.4044416523065877</v>
+        <v>0.3889811791388524</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1099118100100327</v>
+        <v>0.03177077309909748</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.3765999893390841</v>
+        <v>0.268594968319519</v>
       </c>
       <c r="D25">
-        <v>0.03069630908394316</v>
+        <v>0.08321817270994813</v>
       </c>
       <c r="E25">
-        <v>0.1397209344320594</v>
+        <v>0.06206737941974083</v>
       </c>
       <c r="F25">
-        <v>6.75178270529554</v>
+        <v>8.321611103338483</v>
       </c>
       <c r="G25">
-        <v>6.256275961390372</v>
+        <v>9.015823542173223</v>
       </c>
       <c r="H25">
-        <v>4.091376358756747</v>
+        <v>4.499648181230498</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3979029319190204</v>
+        <v>0.3182791498872746</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1109488849938707</v>
+        <v>0.03203811884836938</v>
       </c>
       <c r="M25">
         <v>0</v>
